--- a/tablas.xlsx
+++ b/tablas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vctr2\Desktop\Python\proyectos\pyConverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFAF2B6-3A4B-48A8-8FA7-8F37FECBD1BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE862526-35AE-452E-B234-CA4C696C19A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{E932B69D-7CEF-41D5-8A18-959922C14D9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E932B69D-7CEF-41D5-8A18-959922C14D9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>LONGITUD</t>
   </si>
@@ -61,22 +61,27 @@
   </si>
   <si>
     <t>MILLAS NAUTICAS</t>
+  </si>
+  <si>
+    <t>MILLAS_NAUTICAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
-    <numFmt numFmtId="167" formatCode="0.000000000000000"/>
-    <numFmt numFmtId="168" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.000000000000"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0"/>
-    <numFmt numFmtId="171" formatCode="#,##0.000"/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="173" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="174" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="182" formatCode="#,##0.000000000000000"/>
+  <numFmts count="11">
+    <numFmt numFmtId="164" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000000000000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="171" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="172" formatCode="#,##0.000000000000000"/>
+    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="174" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -107,19 +112,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +446,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +500,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -536,7 +545,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="13">
         <v>1000</v>
       </c>
       <c r="C3">
@@ -574,10 +583,10 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="13">
         <v>1000000</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="13">
         <v>1000</v>
       </c>
       <c r="D4">
@@ -612,10 +621,10 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="13">
         <v>10000000</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="13">
         <v>10000</v>
       </c>
       <c r="D5" s="6">
@@ -650,13 +659,13 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="13">
         <v>1000000000</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="13">
         <v>1000000</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="13">
         <v>1000</v>
       </c>
       <c r="E6" s="6">
@@ -688,31 +697,31 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="13">
         <v>1000000000000</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="13">
         <v>1000000000</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="13">
         <v>1000000</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="13">
         <v>100000</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="13">
         <v>1000</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="12">
         <v>39370.080000000002</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="12">
         <v>3280.84</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="15">
         <v>1093.6130000000001</v>
       </c>
       <c r="K7" s="10">
@@ -726,10 +735,10 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="13">
         <v>25400000</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="13">
         <v>25400</v>
       </c>
       <c r="D8" s="5">
@@ -764,10 +773,10 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="13">
         <v>304800000</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="13">
         <v>304800</v>
       </c>
       <c r="D9" s="5">
@@ -802,10 +811,10 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="13">
         <v>914400000</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="13">
         <v>914400</v>
       </c>
       <c r="D10" s="5">
@@ -840,31 +849,31 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="13">
         <v>1609344000000</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="13">
         <v>1609344000</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="13">
         <v>1609344</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="14">
         <v>160934.39999999999</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="15">
         <v>1609.3440000000001</v>
       </c>
       <c r="G11" s="10">
         <v>1.6093440000000001</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="13">
         <v>63360</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="13">
         <v>5280</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="13">
         <v>1760</v>
       </c>
       <c r="K11" s="6">
@@ -878,31 +887,31 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="13">
         <v>1852000000000</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="13">
         <v>1852000000</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="13">
         <v>1852000</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="13">
         <v>185200</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="13">
         <v>1852</v>
       </c>
       <c r="G12" s="7">
         <v>1.8520000000000001</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="12">
         <v>72913.39</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="15">
         <v>6076.1149999999998</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="15">
         <v>2025.3720000000001</v>
       </c>
       <c r="K12" s="10">
